--- a/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/BusinessTemplates/d1g_day_1_solvency_ii_reporting_group.xlsx
+++ b/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/BusinessTemplates/d1g_day_1_solvency_ii_reporting_group.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\ExcelGenCmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <definedName name="S.34.01.04.01.TD" localSheetId="17">S.34.01.04.01!$B$6:$H$6</definedName>
     <definedName name="Version" localSheetId="0">Info!$B$2:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -218,7 +218,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Ver:2016.02.29</t>
+    <t>Ver:2016.04.18</t>
   </si>
   <si>
     <t>Back to TOC</t>
@@ -3595,7 +3595,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -3603,6 +3603,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3611,6 +3612,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3619,6 +3621,7 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3626,6 +3629,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4120,9 +4124,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -4172,9 +4176,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -4377,9 +4381,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4427,9 +4431,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -4689,9 +4693,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -4912,7 +4916,7 @@
       </c>
       <c r="D27" s="20"/>
     </row>
-    <row r="28" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="46" t="s">
         <v>443</v>
       </c>
@@ -5099,12 +5103,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="13" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -5145,7 +5149,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="2:9" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>451</v>
       </c>
@@ -5235,9 +5239,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -5643,11 +5647,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -5682,7 +5686,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:9" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>451</v>
       </c>
@@ -5750,9 +5754,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -6087,23 +6091,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="13" customWidth="1"/>
-    <col min="9" max="16" width="20.5703125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="14" customWidth="1"/>
-    <col min="18" max="20" width="20.5703125" style="27" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" style="13" customWidth="1"/>
-    <col min="22" max="22" width="20.5703125" style="14" customWidth="1"/>
-    <col min="23" max="23" width="20.5703125" style="27" customWidth="1"/>
-    <col min="24" max="24" width="20.5703125" style="14" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" style="23" customWidth="1"/>
-    <col min="26" max="26" width="20.5703125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="13" customWidth="1"/>
+    <col min="9" max="16" width="20.7109375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="14" customWidth="1"/>
+    <col min="18" max="20" width="20.7109375" style="27" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="13" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="14" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="27" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" style="14" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" style="23" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
@@ -6498,16 +6502,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="14" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" style="13" customWidth="1"/>
-    <col min="6" max="11" width="20.5703125" style="15" customWidth="1"/>
-    <col min="12" max="14" width="20.5703125" style="13" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="14" customWidth="1"/>
-    <col min="16" max="18" width="20.5703125" style="23" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="15" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="14" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" style="13" customWidth="1"/>
+    <col min="6" max="11" width="20.7109375" style="15" customWidth="1"/>
+    <col min="12" max="14" width="20.7109375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="14" customWidth="1"/>
+    <col min="16" max="18" width="20.7109375" style="23" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="15" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
@@ -6802,12 +6806,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="13" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" style="14" customWidth="1"/>
-    <col min="6" max="7" width="20.5703125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" style="14" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -6935,7 +6939,7 @@
     <hyperlink ref="B1" location="'Table of contents'!A1" tooltip="Click to navigate Table of contents" display="Back to TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9791,9 +9795,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -10026,9 +10030,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -10216,9 +10220,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -10501,11 +10505,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="22" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" style="13" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="22" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="13" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -10653,10 +10657,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -10745,9 +10749,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -11891,9 +11895,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -13576,9 +13580,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
